--- a/StructureDefinition-viral-load-specimen.xlsx
+++ b/StructureDefinition-viral-load-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-specimen.xlsx
+++ b/StructureDefinition-viral-load-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -727,6 +727,10 @@
     <t>Specimen.collection.collected[x]</t>
   </si>
   <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
     <t>Collection time</t>
   </si>
   <si>
@@ -737,7 +741,7 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
+    <t>open</t>
   </si>
   <si>
     <t>.effectiveTime</t>
@@ -928,10 +932,6 @@
   </si>
   <si>
     <t>Specimen.processing.time[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-Period</t>
   </si>
   <si>
     <t>Date and time of specimen processing</t>
@@ -3969,13 +3969,13 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4014,14 +4014,14 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>227</v>
@@ -4039,13 +4039,13 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
@@ -4053,7 +4053,7 @@
         <v>227</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>74</v>
@@ -4078,10 +4078,10 @@
         <v>180</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4147,18 +4147,18 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4181,13 +4181,13 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4238,7 +4238,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4256,7 +4256,7 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4287,13 +4287,13 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4344,7 +4344,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4359,18 +4359,18 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4396,10 +4396,10 @@
         <v>162</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4429,10 +4429,10 @@
         <v>166</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4450,7 +4450,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4465,18 +4465,18 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4502,13 +4502,13 @@
         <v>162</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4537,10 +4537,10 @@
         <v>166</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4558,7 +4558,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4573,18 +4573,18 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4607,19 +4607,19 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4644,13 +4644,13 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4668,7 +4668,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4689,12 +4689,12 @@
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4720,10 +4720,10 @@
         <v>201</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4774,7 +4774,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4789,7 +4789,7 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4906,7 +4906,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5014,7 +5014,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5124,7 +5124,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5150,10 +5150,10 @@
         <v>207</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5204,7 +5204,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5219,7 +5219,7 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5230,7 +5230,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5256,10 +5256,10 @@
         <v>162</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5289,10 +5289,10 @@
         <v>166</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
@@ -5310,7 +5310,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5359,13 +5359,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5416,7 +5416,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5431,18 +5431,18 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5465,7 +5465,7 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>295</v>
@@ -5522,7 +5522,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5537,7 +5537,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -6319,7 +6319,7 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>319</v>
@@ -6425,7 +6425,7 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>324</v>
@@ -6674,7 +6674,7 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>341</v>

--- a/StructureDefinition-viral-load-specimen.xlsx
+++ b/StructureDefinition-viral-load-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-viral-load-specimen.xlsx
+++ b/StructureDefinition-viral-load-specimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
